--- a/Epsitec.Cresus/App.Aider/Samples/EERV Région 9/9050/id.xlsx
+++ b/Epsitec.Cresus/App.Aider/Samples/EERV Région 9/9050/id.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21721"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15620" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="435" windowWidth="25605" windowHeight="15615" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,22 +39,22 @@
     <t>Stockage</t>
   </si>
   <si>
-    <t>Pully-Paudex</t>
-  </si>
-  <si>
-    <t>Belmont-Lutry</t>
-  </si>
-  <si>
     <t>Saint-Saphorin</t>
   </si>
   <si>
-    <t>Savigny-Forel</t>
-  </si>
-  <si>
     <t>Villette</t>
   </si>
   <si>
     <t>Région 9 Lavaux</t>
+  </si>
+  <si>
+    <t>Pully – Paudex</t>
+  </si>
+  <si>
+    <t>Belmont – Lutry</t>
+  </si>
+  <si>
+    <t>Savigny – Forel</t>
   </si>
 </sst>
 </file>
@@ -127,6 +127,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -455,12 +460,12 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="21.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="21.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -480,7 +485,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -494,13 +499,13 @@
         <v>9000</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F2" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -514,13 +519,13 @@
         <v>9000</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F3" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -534,13 +539,13 @@
         <v>9000</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F4" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -554,13 +559,13 @@
         <v>9000</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F5" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -574,13 +579,13 @@
         <v>9000</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F6" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -594,13 +599,13 @@
         <v>9000</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F7" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
     </row>
